--- a/fpl_forwardOld.xlsx
+++ b/fpl_forwardOld.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D46"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,19 +458,19 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Kane (F)</t>
+          <t>Ronaldo (F)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TOT</t>
+          <t>MUN</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>12.6</v>
+        <v>12.2</v>
       </c>
       <c r="D2" t="n">
-        <v>4.534664260000001</v>
+        <v>2.353694509999999</v>
       </c>
     </row>
     <row r="3">
@@ -488,25 +488,25 @@
         <v>8.6</v>
       </c>
       <c r="D3" t="n">
-        <v>4.478979689999999</v>
+        <v>3.717935879999998</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Toney (F)</t>
+          <t>Pukki (F)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>BRE</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="D4" t="n">
-        <v>3.939539659999999</v>
+        <v>4.942193419999999</v>
       </c>
     </row>
     <row r="5">
@@ -524,43 +524,43 @@
         <v>7.5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.120474249999998</v>
+        <v>2.914878149999998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Pukki (F)</t>
+          <t>Toney (F)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>BRE</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.9</v>
+        <v>6.9</v>
       </c>
       <c r="D6" t="n">
-        <v>6.092977379999998</v>
+        <v>3.04610844</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Wood (F)</t>
+          <t>Watkins (F)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>AVL</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>6.7</v>
+        <v>7.4</v>
       </c>
       <c r="D7" t="n">
-        <v>4.4485545</v>
+        <v>2.049411849999998</v>
       </c>
     </row>
     <row r="8">
@@ -578,43 +578,43 @@
         <v>6.3</v>
       </c>
       <c r="D8" t="n">
-        <v>4.002594229999999</v>
+        <v>5.88984072</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ayew (F)</t>
+          <t>Kane (F)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>CRY</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.8</v>
+        <v>12.6</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4205104999999996</v>
+        <v>4.50165736</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Jesus (F)</t>
+          <t>Nketiah (F)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>8.4</v>
+        <v>5.4</v>
       </c>
       <c r="D10" t="n">
-        <v>4.389526599999998</v>
+        <v>2.92284963</v>
       </c>
     </row>
     <row r="11">
@@ -632,79 +632,79 @@
         <v>4.6</v>
       </c>
       <c r="D11" t="n">
-        <v>3.53857036</v>
+        <v>2.709186949999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Watkins (F)</t>
+          <t>Wood (F)</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AVL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="D12" t="n">
-        <v>2.85242514</v>
+        <v>4.77773396</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Mateta (F)</t>
+          <t>Iheanacho (F)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>CRY</t>
+          <t>LEI</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5.3</v>
+        <v>7.1</v>
       </c>
       <c r="D13" t="n">
-        <v>3.65633109</v>
+        <v>4.159020470000001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Iheanacho (F)</t>
+          <t>Ayew (F)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LEI</t>
+          <t>CRY</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>7.1</v>
+        <v>5.8</v>
       </c>
       <c r="D14" t="n">
-        <v>3.23670177</v>
+        <v>1.25706373</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Rodriguez (F)</t>
+          <t>Jesus (F)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BUR</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5.2</v>
+        <v>8.4</v>
       </c>
       <c r="D15" t="n">
-        <v>4.62613198</v>
+        <v>3.96558748</v>
       </c>
     </row>
     <row r="16">
@@ -722,13 +722,13 @@
         <v>5.6</v>
       </c>
       <c r="D16" t="n">
-        <v>4.791121420000001</v>
+        <v>4.938083640000001</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Vydra (F)</t>
+          <t>Rodriguez (F)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -740,97 +740,97 @@
         <v>5.2</v>
       </c>
       <c r="D17" t="n">
-        <v>5.170872799999998</v>
+        <v>4.43049738</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Antonio (F)</t>
+          <t>Dennis (F)</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>WHU</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>7.5</v>
+        <v>5.8</v>
       </c>
       <c r="D18" t="n">
-        <v>3.232837849999999</v>
+        <v>1.53889944</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Broja (F)</t>
+          <t>Mateta (F)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>SOU</t>
+          <t>CRY</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="D19" t="n">
-        <v>3.96237142</v>
+        <v>3.58793822</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Adams (F)</t>
+          <t>Weghorst (F)</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>SOU</t>
+          <t>BUR</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="D20" t="n">
-        <v>2.859013899999999</v>
+        <v>3.722766159999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Welbeck (F)</t>
+          <t>Antonio (F)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>BHA</t>
+          <t>WHU</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5.9</v>
+        <v>7.5</v>
       </c>
       <c r="D21" t="n">
-        <v>2.605283859999999</v>
+        <v>4.83302359</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lacazette (F)</t>
+          <t>Rondón (F)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>EVE</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>8.4</v>
+        <v>6</v>
       </c>
       <c r="D22" t="n">
-        <v>3.718757259999999</v>
+        <v>3.92051979</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
         <v>5.4</v>
       </c>
       <c r="D23" t="n">
-        <v>3.61790327</v>
+        <v>3.43123643</v>
       </c>
     </row>
     <row r="24">
@@ -872,361 +872,361 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Firmino (F)</t>
+          <t>Vydra (F)</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>LIV</t>
+          <t>BUR</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>8.699999999999999</v>
+        <v>5.2</v>
       </c>
       <c r="D25" t="n">
-        <v>4.5197555</v>
+        <v>4.382396669999999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Saint-Maximin (F)</t>
+          <t>Welbeck (F)</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>BHA</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="D26" t="n">
-        <v>3.799727739999999</v>
+        <v>2.91768005</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Hwang (F)</t>
+          <t>Saint-Maximin (F)</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>WOL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5.4</v>
+        <v>6.8</v>
       </c>
       <c r="D27" t="n">
-        <v>4.83053825</v>
+        <v>4.231762329999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Daka (F)</t>
+          <t>Broja (F)</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>LEI</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="D28" t="n">
-        <v>4.027332320000001</v>
+        <v>3.407469089999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Weghorst (F)</t>
+          <t>Lacazette (F)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>BUR</t>
+          <t>ARS</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>4.4829425</v>
+        <v>3.82822052</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bamford (F)</t>
+          <t>Adams (F)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>LEE</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>7.7</v>
+        <v>6.8</v>
       </c>
       <c r="D30" t="n">
-        <v>3.248052739999999</v>
+        <v>2.597307270000001</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ings (F)</t>
+          <t>Joelinton (F)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AVL</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>7.7</v>
+        <v>5.8</v>
       </c>
       <c r="D31" t="n">
-        <v>3.48171173</v>
+        <v>-0.2891275300000007</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Long (F)</t>
+          <t>Edouard (F)</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SOU</t>
+          <t>CRY</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="D32" t="n">
-        <v>5.20568626</v>
+        <v>3.03968039</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Lukaku (F)</t>
+          <t>Firmino (F)</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>LIV</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>11.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D33" t="n">
-        <v>4.390953750000001</v>
+        <v>4.5197555</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Joelinton (F)</t>
+          <t>Hwang (F)</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NEW</t>
+          <t>WOL</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5.8</v>
+        <v>5.4</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1421806099999998</v>
+        <v>4.879576309999999</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Rondón (F)</t>
+          <t>Daka (F)</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EVE</t>
+          <t>LEI</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" t="n">
-        <v>5.838330859999999</v>
+        <v>3.15367969</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Barnes (F)</t>
+          <t>Cucho (F)</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>BUR</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>4.035751190000001</v>
+        <v>2.949921129999999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>King (F)</t>
+          <t>A.Armstrong (F)</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="D37" t="n">
-        <v>3.0118988</v>
+        <v>1.354624159999997</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Gelhardt (F)</t>
+          <t>Barnes (F)</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>LEE</t>
+          <t>BUR</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="D38" t="n">
-        <v>4.85186441</v>
+        <v>4.035751190000001</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Nketiah (F)</t>
+          <t>King (F)</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ARS</t>
+          <t>WAT</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="D39" t="n">
-        <v>2.035589119999999</v>
+        <v>3.15358264</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Dennis (F)</t>
+          <t>Ings (F)</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>AVL</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5.9</v>
+        <v>7.7</v>
       </c>
       <c r="D40" t="n">
-        <v>1.636554699999999</v>
+        <v>2.740158009999999</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cucho (F)</t>
+          <t>Gelhardt (F)</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>WAT</t>
+          <t>LEE</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="D41" t="n">
-        <v>2.949921129999999</v>
+        <v>4.85186441</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A.Armstrong (F)</t>
+          <t>Gayle (F)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SOU</t>
+          <t>NEW</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="D42" t="n">
-        <v>1.354624159999997</v>
+        <v>4.52993179</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ronaldo (F)</t>
+          <t>Lukaku (F)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>MUN</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>12.2</v>
+        <v>11.4</v>
       </c>
       <c r="D43" t="n">
-        <v>2.24090024</v>
+        <v>4.596555589999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Edouard (F)</t>
+          <t>Long (F)</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CRY</t>
+          <t>SOU</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>6.1</v>
+        <v>5.4</v>
       </c>
       <c r="D44" t="n">
-        <v>2.69804708</v>
+        <v>3.939816559999999</v>
       </c>
     </row>
     <row r="45">
@@ -1244,25 +1244,7 @@
         <v>6.4</v>
       </c>
       <c r="D45" t="n">
-        <v>4.86409707</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Jiménez (F)</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>WOL</t>
-        </is>
-      </c>
-      <c r="C46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.5920223799999991</v>
+        <v>4.58780237</v>
       </c>
     </row>
   </sheetData>
